--- a/Study 3/Shocks/GCAM/NDC_LTT - 2050.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_LTT - 2050.xlsx
@@ -11442,7 +11442,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.09851185996894188</v>
+        <v>0.09851185996894189</v>
       </c>
     </row>
     <row r="4">
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.007582563926337471</v>
+        <v>0.007582563926337472</v>
       </c>
     </row>
     <row r="8">
@@ -12082,7 +12082,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.06720943447196143</v>
+        <v>0.06720943447196144</v>
       </c>
     </row>
     <row r="20">
@@ -12402,7 +12402,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.004340559023542519</v>
+        <v>0.00434055902354252</v>
       </c>
     </row>
     <row r="28">
@@ -12562,7 +12562,7 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.004998520861307321</v>
+        <v>0.004998520861307322</v>
       </c>
     </row>
     <row r="32">
@@ -12882,7 +12882,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.4068388845868234</v>
+        <v>0.4068388845868235</v>
       </c>
     </row>
     <row r="40">
